--- a/Tarefas Parque.xlsx
+++ b/Tarefas Parque.xlsx
@@ -42,9 +42,6 @@
     <t>PROBLEMAS</t>
   </si>
   <si>
-    <t>TAREFAS/STATUS</t>
-  </si>
-  <si>
     <t>SPED</t>
   </si>
   <si>
@@ -57,6 +54,9 @@
   <si>
     <t>FECHAMENTO 
 FINANCEIRO</t>
+  </si>
+  <si>
+    <t>TAREFAS</t>
   </si>
 </sst>
 </file>
@@ -86,13 +86,6 @@
     </font>
     <font>
       <b/>
-      <sz val="9"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
       <sz val="16"/>
       <color theme="0"/>
       <name val="Arial"/>
@@ -108,6 +101,14 @@
     <font>
       <b/>
       <sz val="24"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="9"/>
       <color theme="0"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -215,28 +216,43 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -266,23 +282,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>78443</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>137352</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>199469</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>166388</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>488569</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>930086</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1568824</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1544172</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="22" name="Imagem 21" descr="Resultado de imagem para sticky notes png">
+        <xdr:cNvPr id="40" name="Imagem 39" descr="Resultado de imagem para sticky notes png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E90724C4-CE15-4320-AA5D-EE5D797D656E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA058AC6-DBE9-4941-851D-CC1CC24AB56A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -291,7 +307,125 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="70859" b="53990"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5320557" y="412917"/>
+          <a:ext cx="1369355" cy="1377784"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>80684</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>57674</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1545912</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1532964</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="Imagem 28" descr="Resultado de imagem para sticky notes png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01EB3A9B-33F0-486F-B214-D8C2FC59CEA4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect t="54456" r="71308"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3532096" y="3397027"/>
+          <a:ext cx="1465228" cy="1475290"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>80685</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>34486</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1615087</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1537445</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="Imagem 31" descr="Resultado de imagem para sticky notes png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{569DDD52-EB20-44A6-A9A6-0A04635F08EB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -303,8 +437,67 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="11878237" y="137352"/>
-          <a:ext cx="1015244" cy="994440"/>
+          <a:off x="10210803" y="1782604"/>
+          <a:ext cx="1534402" cy="1502959"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>64997</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1382723</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1349187</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="Imagem 29" descr="Resultado de imagem para sticky notes png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33440996-184B-4CF7-939A-DD83C347FFF8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect t="54456" r="71308"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5186085" y="268941"/>
+          <a:ext cx="1317726" cy="1326775"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -326,76 +519,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>193857</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>22411</xdr:colOff>
+      <xdr:colOff>131321</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>179294</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Imagem 3" descr="Imagem relacionada">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{702F3C54-B102-4559-B67D-48AFA998823F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="5168713" y="193857"/>
-          <a:ext cx="1644463" cy="1733555"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>187351</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>282287</xdr:rowOff>
+      <xdr:rowOff>136609</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1466378</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>1544981</xdr:rowOff>
+      <xdr:colOff>1410348</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1277469</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -410,8 +542,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5308439" y="483993"/>
-          <a:ext cx="1279027" cy="1262694"/>
+          <a:off x="5252409" y="383138"/>
+          <a:ext cx="1279027" cy="1140860"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -445,7 +577,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="pt-BR" sz="900" baseline="0"/>
-            <a:t> sendo corrigidos os ultimos erros e desenvolvido o layout para o Sped Contribuições</a:t>
+            <a:t> sendo corrigidos os ultimos erros e desenvolvido o layout para o Sped Contribuições.</a:t>
           </a:r>
           <a:endParaRPr lang="pt-BR" sz="900"/>
         </a:p>
@@ -456,76 +588,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>56029</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>1497103</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>156882</xdr:colOff>
+      <xdr:colOff>206466</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>212912</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="Imagem 15" descr="Imagem relacionada">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30994362-2942-4803-8D67-58F1D8219A25}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="10186147" y="1698809"/>
-          <a:ext cx="1770529" cy="1808632"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>206466</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>250079</xdr:rowOff>
+      <xdr:rowOff>205256</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1583544</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>21047</xdr:rowOff>
+      <xdr:rowOff>1333500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -541,7 +612,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10336584" y="1998197"/>
-          <a:ext cx="1377078" cy="1317379"/>
+          <a:ext cx="1377078" cy="1128244"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -575,7 +646,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="pt-BR" sz="900" baseline="0"/>
-            <a:t> cadastros de tipos de pagamentos estão pendentes a duas semanas mas não obtive reposta.</a:t>
+            <a:t> cadastros de tipos de pagamentos estão pendentes a duas semanas mas não obtive reposta financeiro da Parque Papelaria.</a:t>
           </a:r>
           <a:endParaRPr lang="pt-BR" sz="900"/>
         </a:p>
@@ -585,202 +656,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>134470</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>156363</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>13450</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>47063</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>504264</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>693644</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1494714</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>877956</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="Imagem 18" descr="Resultado de imagem para parque papelaria sorocaba">
+        <xdr:cNvPr id="31" name="Imagem 30" descr="Resultado de imagem para sticky notes png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B47D48F-E8EC-4D19-834F-5DA9D2E8F302}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="11934264" y="156363"/>
-          <a:ext cx="974912" cy="738987"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>123268</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>963705</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>498235</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>403411</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="23" name="Imagem 22" descr="Resultado de imagem para sticky notes png">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C0594C3-8FAC-435B-92D1-C67EC97E0D2B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect l="70859" b="53990"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="11923062" y="1165411"/>
-          <a:ext cx="980085" cy="986118"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>156886</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>453737</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>521242</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>1429869</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="24" name="Imagem 23" descr="Resultado de imagem para sticky notes png">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8691EEB1-7218-409B-A8E9-B36EC42250FE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect t="54456" r="71308"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="11956680" y="2201855"/>
-          <a:ext cx="969474" cy="976132"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>141197</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>61380</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>5922</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>17928</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="25" name="Imagem 24" descr="Resultado de imagem para sticky notes png">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8834AB19-DDE2-4C06-817B-DBA295AF8BB5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{731D2523-C8DA-4508-AAA8-835FCC5353FF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -796,250 +688,13 @@
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:srcRect l="35656" t="1" r="34203" b="53601"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1922932" y="1809498"/>
-          <a:ext cx="1534402" cy="1502959"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>141198</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>62753</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1622462</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>6723</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="26" name="Imagem 25" descr="Resultado de imagem para sticky notes png">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1360B7E8-D0E5-4BE5-8401-B65636BEADFA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
         <a:srcRect l="70859" b="53990"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1922933" y="264459"/>
-          <a:ext cx="1481264" cy="1490382"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>129992</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>73362</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1595220</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>2240</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="27" name="Imagem 26" descr="Resultado de imagem para sticky notes png">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DB875C9-9F7D-461B-B486-C3B7435659CC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect t="54456" r="71308"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1911727" y="3367891"/>
-          <a:ext cx="1465228" cy="1475290"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>313766</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>971536</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>313765</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>1546411</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="20" name="Imagem 19" descr="Resultado de imagem para gescontrol sorocaba">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DE4D558-EFF5-4D84-B8A3-B43D79CA27FF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect t="-1" r="76288" b="-2581"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="12113560" y="1173242"/>
-          <a:ext cx="605117" cy="574875"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>134473</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>739588</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>519100</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>1103780</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="21" name="Imagem 20" descr="Resultado de imagem para logo soma soluções">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E56799FB-C30C-4C27-A8CA-5B304D2F1880}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="11934267" y="2487706"/>
-          <a:ext cx="989745" cy="364192"/>
+          <a:off x="3376189" y="3028802"/>
+          <a:ext cx="1481264" cy="830893"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1060,16 +715,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>261691</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>153389</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>104808</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>108564</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1610879</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>1255061</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1453996</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>857250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1084,8 +739,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2043426" y="355095"/>
-          <a:ext cx="1349188" cy="1101672"/>
+          <a:off x="3467133" y="3089889"/>
+          <a:ext cx="1349188" cy="748686"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1131,7 +786,7 @@
               <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t> sendo parametrizados os dados para gerar o arquivo.</a:t>
+            <a:t> sendo parametrizados os dados contabeis para gerar o arquivo.</a:t>
           </a:r>
           <a:endParaRPr lang="pt-BR" sz="900">
             <a:solidFill>
@@ -1147,23 +802,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>156883</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>1541738</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>80684</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>79310</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>470647</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>268939</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1615086</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>35857</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="28" name="Imagem 27" descr="Resultado de imagem para gescontrol sorocaba">
+        <xdr:cNvPr id="33" name="Imagem 32" descr="Resultado de imagem para sticky notes png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2075560F-411C-4465-99D9-D8288377F9F0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E85EA2C-32D4-40CA-AAE3-248451F44303}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1172,31 +827,25 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:srcRect l="26253"/>
+        <a:srcRect l="35656" t="1" r="34203" b="53601"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="11956677" y="1743444"/>
-          <a:ext cx="918882" cy="273613"/>
+          <a:off x="10210802" y="3373839"/>
+          <a:ext cx="1534402" cy="1502959"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:effectLst>
-          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-            <a:schemeClr val="bg1">
-              <a:alpha val="40000"/>
-            </a:schemeClr>
-          </a:outerShdw>
-        </a:effectLst>
+        <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
@@ -1210,25 +859,100 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>179572</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>234392</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1556650</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1362636</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="CaixaDeTexto 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D4EC994-AC52-4E8A-AE15-57C3B3AA77EE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10309690" y="3573745"/>
+          <a:ext cx="1377078" cy="1128244"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="900"/>
+            <a:t>O as</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="900" baseline="0"/>
+            <a:t> contas ainda estão classificadas como "Contas e Receber" entre outras.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="900" baseline="0"/>
+            <a:t>Esta nas mãos do Financeiro da Papelaria do Parque.</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR" sz="900"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>103097</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>76204</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>80086</xdr:rowOff>
+      <xdr:rowOff>30779</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1568325</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>8964</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1541432</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1506069</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="29" name="Imagem 28" descr="Resultado de imagem para sticky notes png">
+        <xdr:cNvPr id="35" name="Imagem 34" descr="Resultado de imagem para sticky notes png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01EB3A9B-33F0-486F-B214-D8C2FC59CEA4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01C17898-04A2-4A37-B433-2458F4E8EF1F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1249,7 +973,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="6893862" y="3374615"/>
+          <a:off x="5197292" y="1823720"/>
           <a:ext cx="1465228" cy="1475290"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1269,6 +993,1142 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>104427</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>143332</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1383454</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1284192</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="CaixaDeTexto 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59ADD5AD-179A-40C9-B9DE-5E95D83E3330}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5225515" y="1936273"/>
+          <a:ext cx="1279027" cy="1140860"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="900"/>
+            <a:t>Layout Contabil</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="900" baseline="0"/>
+            <a:t>, completo.</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR" sz="900"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>133561</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>150057</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1412588</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1176617</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="CaixaDeTexto 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32E5FDA8-7D53-44C5-B432-CA51A63A1780}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3584973" y="3489410"/>
+          <a:ext cx="1279027" cy="1026560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="900"/>
+            <a:t>Desenvolvento Exportação do relário</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="900" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="900"/>
+            <a:t>de Contas</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="900" baseline="0"/>
+            <a:t> a Pagar/Receber em Excel com Plano de contas</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR" sz="900"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>76202</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>75603</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1541430</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>4481</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="Imagem 37" descr="Resultado de imagem para sticky notes png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7C90177-383E-44B7-B23D-2A75CF92E3C3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect t="54456" r="71308"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6866967" y="3414956"/>
+          <a:ext cx="1465228" cy="1475290"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>155974</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>183673</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1435001</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1324533</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="CaixaDeTexto 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8EFC82B-6047-4F10-A940-1F9A9C59B07A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6946739" y="3523026"/>
+          <a:ext cx="1279027" cy="1140860"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="900"/>
+            <a:t>Exportação relatório de custo de produtos</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="900" baseline="0"/>
+            <a:t>.</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR" sz="900"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>31379</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>42582</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1512643</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1532964</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="41" name="Imagem 40" descr="Resultado de imagem para sticky notes png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CF39996-F9EC-4A44-8173-F2B8BB2FD48A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="70859" b="53990"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6743703" y="1835523"/>
+          <a:ext cx="1481264" cy="1490382"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>89118</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>92875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1557615</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1194547</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="CaixaDeTexto 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{247992C9-4D0E-4314-955E-3EE87515E44E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6801442" y="1885816"/>
+          <a:ext cx="1468497" cy="1101672"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Amarração</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="900" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> das contas do Plano Gescontrol com o Plano Parque P.</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR" sz="900">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>71721</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>927651</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1536949</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1490382</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="43" name="Imagem 42" descr="Resultado de imagem para sticky notes png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BB2E9B9-6ED5-4A1F-AFBB-2AF4BB88CC8E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect t="54456" r="71308"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3434460" y="3909390"/>
+          <a:ext cx="1465228" cy="562731"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>108227</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1049937</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1387254</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>31669</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="CaixaDeTexto 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0076CB08-6FF4-407B-A5A0-A9F167E28088}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3470966" y="4031676"/>
+          <a:ext cx="1279027" cy="522297"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="900"/>
+            <a:t>Importar plano de contas amarrado</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="900" baseline="0"/>
+            <a:t>.</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR" sz="900"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>382847</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>134471</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="8043978" cy="843757"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Retângulo 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DCE3910-B274-4434-B403-693A6910521B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3699788" y="134471"/>
+          <a:ext cx="8043978" cy="843757"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="4800" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="50000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent5"/>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="60000"/>
+                      <a:lumOff val="40000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000"/>
+              </a:gradFill>
+              <a:effectLst>
+                <a:reflection blurRad="6350" stA="53000" endA="300" endPos="35500" dir="5400000" sy="-90000" algn="bl" rotWithShape="0"/>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>Status</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="4800" b="0" cap="none" spc="0" baseline="0">
+              <a:ln w="0"/>
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="50000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent5"/>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="60000"/>
+                      <a:lumOff val="40000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000"/>
+              </a:gradFill>
+              <a:effectLst>
+                <a:reflection blurRad="6350" stA="53000" endA="300" endPos="35500" dir="5400000" sy="-90000" algn="bl" rotWithShape="0"/>
+              </a:effectLst>
+            </a:rPr>
+            <a:t> Tarefas Parque Papelaria</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR" sz="4800" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:gradFill>
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent5"/>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000"/>
+            </a:gradFill>
+            <a:effectLst>
+              <a:reflection blurRad="6350" stA="53000" endA="300" endPos="35500" dir="5400000" sy="-90000" algn="bl" rotWithShape="0"/>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>156881</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>235324</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1647265</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>968749</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="46" name="Imagem 45" descr="Resultado de imagem para logo gescontrol">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBBAFB49-26BB-4678-AE66-016E3EDA19DD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="235322" y="235324"/>
+          <a:ext cx="3115237" cy="733425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>134472</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>1165412</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>470647</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>981634</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="6" name="Agrupar 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFA3CC02-A86E-4D8F-8815-A64D5FDE6A38}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="11855825" y="1165412"/>
+          <a:ext cx="941293" cy="4343398"/>
+          <a:chOff x="11799796" y="616324"/>
+          <a:chExt cx="1047917" cy="4343398"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="22" name="Imagem 21" descr="Resultado de imagem para sticky notes png">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E90724C4-CE15-4320-AA5D-EE5D797D656E}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect l="35656" t="1" r="34203" b="53601"/>
+          <a:stretch/>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="11799796" y="1325176"/>
+            <a:ext cx="1015244" cy="994440"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="19" name="Imagem 18" descr="Resultado de imagem para parque papelaria sorocaba">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B47D48F-E8EC-4D19-834F-5DA9D2E8F302}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="11855823" y="1456765"/>
+            <a:ext cx="885526" cy="671232"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="23" name="Imagem 22" descr="Resultado de imagem para sticky notes png">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C0594C3-8FAC-435B-92D1-C67EC97E0D2B}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect l="70859" b="53990"/>
+          <a:stretch/>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="11822209" y="2700617"/>
+            <a:ext cx="980085" cy="986118"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="24" name="Imagem 23" descr="Resultado de imagem para sticky notes png">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8691EEB1-7218-409B-A8E9-B36EC42250FE}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect t="54456" r="71308"/>
+          <a:stretch/>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="11878239" y="3983590"/>
+            <a:ext cx="969474" cy="976132"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="20" name="Imagem 19" descr="Resultado de imagem para gescontrol sorocaba">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DE4D558-EFF5-4D84-B8A3-B43D79CA27FF}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect t="-1" r="76288" b="-2581"/>
+          <a:stretch/>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="12012707" y="2708448"/>
+            <a:ext cx="605117" cy="581412"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="21" name="Imagem 20" descr="Resultado de imagem para logo soma soluções">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E56799FB-C30C-4C27-A8CA-5B304D2F1880}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="11855826" y="4280647"/>
+            <a:ext cx="959291" cy="352986"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="28" name="Imagem 27" descr="Resultado de imagem para gescontrol sorocaba">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2075560F-411C-4465-99D9-D8288377F9F0}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect l="26253"/>
+          <a:stretch/>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="11855824" y="3278650"/>
+            <a:ext cx="918882" cy="273613"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:effectLst>
+            <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+              <a:schemeClr val="bg1">
+                <a:alpha val="40000"/>
+              </a:schemeClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="47" name="Imagem 46" descr="Resultado de imagem para icone equipe">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D74620EE-A763-4B8B-9DA4-7CA650E4DC51}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+            <a:duotone>
+              <a:schemeClr val="accent5">
+                <a:shade val="45000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+              <a:prstClr val="white"/>
+            </a:duotone>
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="11855822" y="616324"/>
+            <a:ext cx="893319" cy="588308"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1276,16 +2136,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>33617</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>33619</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>224117</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>145677</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>257735</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>179295</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1313,7 +2173,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="0" y="1"/>
+          <a:off x="3664323" y="3081619"/>
           <a:ext cx="2644588" cy="2622176"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1335,14 +2195,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>369793</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>526675</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>78442</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>235324</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>11206</xdr:rowOff>
     </xdr:to>
@@ -1372,7 +2232,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3395381" y="0"/>
+          <a:off x="7182969" y="0"/>
           <a:ext cx="2734237" cy="2678206"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1394,16 +2254,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>414618</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>537882</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>151840</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>179295</xdr:rowOff>
+      <xdr:rowOff>179294</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1431,7 +2291,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="6465794" y="1"/>
+          <a:off x="3563470" y="0"/>
           <a:ext cx="2639546" cy="2655794"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1455,13 +2315,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1490,7 +2350,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="0" y="2857500"/>
+          <a:off x="0" y="0"/>
           <a:ext cx="2610971" cy="2628900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1573,16 +2433,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>571499</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
+      <xdr:rowOff>105055</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>171449</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>80963</xdr:rowOff>
+      <xdr:rowOff>114581</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1610,7 +2470,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="6622675" y="2928937"/>
+          <a:off x="7227793" y="2962555"/>
           <a:ext cx="2625539" cy="2676526"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1632,16 +2492,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>313765</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>156882</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>134469</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>582706</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>133351</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>268941</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>110938</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1669,7 +2529,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3339353" y="2823882"/>
+          <a:off x="0" y="2991969"/>
           <a:ext cx="2689412" cy="2643469"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1989,58 +2849,60 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:K7"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B1:L8"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.28515625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="1.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" style="3" customWidth="1"/>
     <col min="3" max="8" width="25" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="5" t="s">
-        <v>5</v>
+    <row r="1" spans="2:12" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+    </row>
+    <row r="2" spans="2:12" s="11" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="12" t="s">
+        <v>9</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>7</v>
+      <c r="F2" s="8" t="s">
+        <v>6</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H2" s="10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="2:11" ht="121.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2"/>
-    </row>
-    <row r="3" spans="2:11" ht="121.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="10" t="s">
-        <v>8</v>
+    <row r="3" spans="2:12" ht="121.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="7" t="s">
+        <v>5</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -2048,12 +2910,13 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
-      <c r="J3"/>
+      <c r="I3"/>
       <c r="K3"/>
+      <c r="L3"/>
     </row>
-    <row r="4" spans="2:11" ht="121.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="9" t="s">
-        <v>9</v>
+    <row r="4" spans="2:12" ht="121.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="6" t="s">
+        <v>7</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -2061,9 +2924,13 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
+      <c r="J4"/>
+      <c r="K4"/>
     </row>
-    <row r="5" spans="2:11" ht="121.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="6"/>
+    <row r="5" spans="2:12" ht="121.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -2071,8 +2938,8 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="2:11" ht="121.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="6"/>
+    <row r="6" spans="2:12" ht="9.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="4"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -2080,10 +2947,26 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="2:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="2:12" ht="12" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="4"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="2:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <mergeCells count="1">
+    <mergeCell ref="I1:J1"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0" right="0" top="0.59055118110236227" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="76" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;L&amp;B Confidencial&amp;B&amp;C&amp;D&amp;RPágina &amp;P</oddFooter>
+  </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -2093,7 +2976,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R8" sqref="R8"/>
+      <selection activeCell="U12" sqref="U12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
